--- a/biology/Médecine/Renée_Richards/Renée_Richards.xlsx
+++ b/biology/Médecine/Renée_Richards/Renée_Richards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Richards</t>
+          <t>Renée_Richards</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Renée Richards, née Richard Raskind le 19 août 1934 à New York dans le quartier du Queens, est une joueuse de tennis américaine devenue une éminente ophtalmologue des années 1960. Avant son opération de réattribution sexuelle, elle a eu une carrière dans le tennis amateur masculin puis elle entame en 1976 une carrière de joueuse de tennis professionnelle au cours de laquelle elle connaît, malgré elle, la célébrité, à cause de la médiatisation de son changement de genre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Richards</t>
+          <t>Renée_Richards</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,20 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les premiers paragraphes, l'identité masculine est utilisée en référence à son sexe biologique de naissance (masculin) et non à son identité de genre (féminin). Cette identité n'est utilisée qu'à des fins encyclopédiques pour éviter tout anachronisme, Renée Richards étant alors identifiée ainsi socialement ou sportivement.
-Avant sa transition
-En 1954, Richard Raskind est capitaine de son équipe de tennis à l'Université Yale. Raskind poursuit ensuite des études de médecine à l’Université de Rochester, sert dans l’US Navy en tant que lieutenant commander, puis officie à New York comme ophtalmologue, avec une spécialité dans le traitement du strabisme. Jouant de tennis de façon amateur, Raskind participe entre autres à cinq reprises aux Internationaux des États-Unis dans les années 1950 et dispute durant cette période de nombreux tournois majeurs aux États-Unis, tels que l'US National Indoor, l'US Clay Court, l'Eastern Grass Court Championships ou encore le tournoi de Newport. Raskind rencontre cependant davantage de succès dans des épreuves secondaires, remportant en effet un championnat d'État à New York en 1964.
-Première tentative de réassignation sexuelle
-Raskind voyage en Europe dans les années 1960 avant d'entreprendre de se faire opérer dans une clinique gynécologique de Georges Burou à Casablanca pour effectuer une partie de sa transition d'homme en femme. Des œstrogènes lui sont administrés mais, l'angoisse est si paralysante[2] que Raskind renonce à l'intervention chirurgicale au dernier moment, retourne aux États-Unis où, encore connue socialement en tant qu'homme, elle se marie avec une femme et a un fils (Nicholas).
-Réassignation sexuelle effective
-Après son divorce en 1975, Raskind tente alors une seconde opération en Californie sur les recommandations du psychologue Harry Benjamin. C'est un succès : elle est enfin reconnue socialement comme femme, sous le nom de Renée Richards. Elle se lance alors, à plus de quarante ans, dans une honorable carrière de joueuse de tennis professionnelle sur le circuit WTA.
-En 1976, à la suite des révélations d'un journaliste, l'USTA lui refuse le droit de concourir à l'US Open au motif de sa transidentité. Encouragée par des centaines de lettres, elle porte l'affaire en justice. La Cour suprême de New York lui donne raison en 1977 et, la même année aux côtés de Betty-Ann Stuart, elle atteint la finale du double dames de l'épreuve[3].
-Après avoir été 20e joueuse mondiale en février 1979 et avoir entraîné Martina Navrátilová pendant deux saisons, elle abandonne définitivement le tennis professionnel en 1982 et renoue aussitôt avec la médecine[4].
-Elle publie en 1983 une première autobiographie, Second Serve, adaptée en téléfilm en mai 1986 pour une chaîne américaine[5], avec Vanessa Redgrave dans le rôle de Raskind/Richards. Dans son second ouvrage, No Way Renée, paru en 2007, elle évoque notamment les multiples bouleversements identitaires et familiaux liés à son changement anatomique, en particulier ses relations difficiles avec son fils.
-Renée Richards exerçait encore sa profession d'ophtalmologue en 2004[6].
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans les premiers paragraphes, l'identité masculine est utilisée en référence à son sexe biologique de naissance (masculin) et non à son identité de genre (féminin). Cette identité n'est utilisée qu'à des fins encyclopédiques pour éviter tout anachronisme, Renée Richards étant alors identifiée ainsi socialement ou sportivement.</t>
         </is>
       </c>
     </row>
@@ -535,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Richards</t>
+          <t>Renée_Richards</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,15 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Palmarès</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Titres en simple dames
-Finales en simple dames
-Titre en double dames
-Finales en double dames</t>
+          <t>Avant sa transition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1954, Richard Raskind est capitaine de son équipe de tennis à l'Université Yale. Raskind poursuit ensuite des études de médecine à l’Université de Rochester, sert dans l’US Navy en tant que lieutenant commander, puis officie à New York comme ophtalmologue, avec une spécialité dans le traitement du strabisme. Jouant de tennis de façon amateur, Raskind participe entre autres à cinq reprises aux Internationaux des États-Unis dans les années 1950 et dispute durant cette période de nombreux tournois majeurs aux États-Unis, tels que l'US National Indoor, l'US Clay Court, l'Eastern Grass Court Championships ou encore le tournoi de Newport. Raskind rencontre cependant davantage de succès dans des épreuves secondaires, remportant en effet un championnat d'État à New York en 1964.
+</t>
         </is>
       </c>
     </row>
@@ -568,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Richards</t>
+          <t>Renée_Richards</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,19 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parcours dans les tournois du Grand Chelem</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En simple messieurs
-N.B. : à droite du résultat se trouve le nom de l'ultime adversaire.
-En simple dames
-À droite du résultat, l’ultime adversaire.
-En double dames
-Sous le résultat, la partenaire ; à droite, l’ultime équipe adverse.
-En double mixte
-Sous le résultat, le partenaire ; à droite, l’ultime équipe adverse.
+          <t>Première tentative de réassignation sexuelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raskind voyage en Europe dans les années 1960 avant d'entreprendre de se faire opérer dans une clinique gynécologique de Georges Burou à Casablanca pour effectuer une partie de sa transition d'homme en femme. Des œstrogènes lui sont administrés mais, l'angoisse est si paralysante que Raskind renonce à l'intervention chirurgicale au dernier moment, retourne aux États-Unis où, encore connue socialement en tant qu'homme, elle se marie avec une femme et a un fils (Nicholas).
 </t>
         </is>
       </c>
@@ -606,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Richards</t>
+          <t>Renée_Richards</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +627,201 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réassignation sexuelle effective</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après son divorce en 1975, Raskind tente alors une seconde opération en Californie sur les recommandations du psychologue Harry Benjamin. C'est un succès : elle est enfin reconnue socialement comme femme, sous le nom de Renée Richards. Elle se lance alors, à plus de quarante ans, dans une honorable carrière de joueuse de tennis professionnelle sur le circuit WTA.
+En 1976, à la suite des révélations d'un journaliste, l'USTA lui refuse le droit de concourir à l'US Open au motif de sa transidentité. Encouragée par des centaines de lettres, elle porte l'affaire en justice. La Cour suprême de New York lui donne raison en 1977 et, la même année aux côtés de Betty-Ann Stuart, elle atteint la finale du double dames de l'épreuve.
+Après avoir été 20e joueuse mondiale en février 1979 et avoir entraîné Martina Navrátilová pendant deux saisons, elle abandonne définitivement le tennis professionnel en 1982 et renoue aussitôt avec la médecine.
+Elle publie en 1983 une première autobiographie, Second Serve, adaptée en téléfilm en mai 1986 pour une chaîne américaine, avec Vanessa Redgrave dans le rôle de Raskind/Richards. Dans son second ouvrage, No Way Renée, paru en 2007, elle évoque notamment les multiples bouleversements identitaires et familiaux liés à son changement anatomique, en particulier ses relations difficiles avec son fils.
+Renée Richards exerçait encore sa profession d'ophtalmologue en 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renée_Richards</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Richards</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parcours dans les tournois du Grand Chelem</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En simple messieurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N.B. : à droite du résultat se trouve le nom de l'ultime adversaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renée_Richards</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Richards</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parcours dans les tournois du Grand Chelem</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En simple dames</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À droite du résultat, l’ultime adversaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renée_Richards</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Richards</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Parcours dans les tournois du Grand Chelem</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En double dames</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le résultat, la partenaire ; à droite, l’ultime équipe adverse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renée_Richards</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Richards</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Parcours dans les tournois du Grand Chelem</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En double mixte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le résultat, le partenaire ; à droite, l’ultime équipe adverse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renée_Richards</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Richards</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Renée Richards et John Ames, Second Serve : The Renée Richards Story, New York, Stein &amp; Day, 1983, 373 p. (ISBN 978-0-8128-2897-9)
 (en) Renée Richards et John Ames, No Way Renée : The Second Half of My Notorious Life, New York, Simon &amp; Schuster, 2007, 302 p. (ISBN 978-0-7432-9013-5, présentation en ligne)</t>
